--- a/Task distribution.xlsx
+++ b/Task distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grey Phoenix\Documents\GitHub\ADSEE-2-Group-Assignment-for-Spacecraft-and-Aircraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0EF9602-D334-4140-AA52-A15E72C0190E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D228C8-4F79-497E-8526-8FF2781D3E41}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="14374" xr2:uid="{83876449-C96D-4DAD-832A-7EA2CD99F542}"/>
   </bookViews>
